--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Vwf-Gp1ba.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Vwf-Gp1ba.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Gp1ba</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.9698064957253</v>
+        <v>32.27937499999999</v>
       </c>
       <c r="H2">
-        <v>20.9698064957253</v>
+        <v>96.83812499999999</v>
       </c>
       <c r="I2">
-        <v>0.3383777977849396</v>
+        <v>0.4310459465194891</v>
       </c>
       <c r="J2">
-        <v>0.3383777977849396</v>
+        <v>0.4310459465194891</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.796262428731776</v>
+        <v>1.156565</v>
       </c>
       <c r="N2">
-        <v>0.796262428731776</v>
+        <v>3.469695</v>
       </c>
       <c r="O2">
-        <v>0.08310985982696313</v>
+        <v>0.1114986879114225</v>
       </c>
       <c r="P2">
-        <v>0.08310985982696313</v>
+        <v>0.1114986879114225</v>
       </c>
       <c r="Q2">
-        <v>16.6974690503216</v>
+        <v>37.33319534687499</v>
       </c>
       <c r="R2">
-        <v>16.6974690503216</v>
+        <v>335.998758121875</v>
       </c>
       <c r="S2">
-        <v>0.0281225313424628</v>
+        <v>0.04806105746646025</v>
       </c>
       <c r="T2">
-        <v>0.0281225313424628</v>
+        <v>0.04806105746646025</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.9698064957253</v>
+        <v>32.27937499999999</v>
       </c>
       <c r="H3">
-        <v>20.9698064957253</v>
+        <v>96.83812499999999</v>
       </c>
       <c r="I3">
-        <v>0.3383777977849396</v>
+        <v>0.4310459465194891</v>
       </c>
       <c r="J3">
-        <v>0.3383777977849396</v>
+        <v>0.4310459465194891</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.56993587049275</v>
+        <v>1.618010666666667</v>
       </c>
       <c r="N3">
-        <v>1.56993587049275</v>
+        <v>4.854032</v>
       </c>
       <c r="O3">
-        <v>0.1638619950231578</v>
+        <v>0.1559843730011019</v>
       </c>
       <c r="P3">
-        <v>0.1638619950231578</v>
+        <v>0.1559843730011019</v>
       </c>
       <c r="Q3">
-        <v>32.92125141493102</v>
+        <v>52.22837306333333</v>
       </c>
       <c r="R3">
-        <v>32.92125141493102</v>
+        <v>470.05535757</v>
       </c>
       <c r="S3">
-        <v>0.05544726101658286</v>
+        <v>0.06723643170250901</v>
       </c>
       <c r="T3">
-        <v>0.05544726101658286</v>
+        <v>0.06723643170250901</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.9698064957253</v>
+        <v>32.27937499999999</v>
       </c>
       <c r="H4">
-        <v>20.9698064957253</v>
+        <v>96.83812499999999</v>
       </c>
       <c r="I4">
-        <v>0.3383777977849396</v>
+        <v>0.4310459465194891</v>
       </c>
       <c r="J4">
-        <v>0.3383777977849396</v>
+        <v>0.4310459465194891</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.27659917209295</v>
+        <v>1.322726666666667</v>
       </c>
       <c r="N4">
-        <v>1.27659917209295</v>
+        <v>3.96818</v>
       </c>
       <c r="O4">
-        <v>0.1332449886111627</v>
+        <v>0.1275175090019003</v>
       </c>
       <c r="P4">
-        <v>0.1332449886111627</v>
+        <v>0.1275175090019004</v>
       </c>
       <c r="Q4">
-        <v>26.77003761139228</v>
+        <v>42.69679009583332</v>
       </c>
       <c r="R4">
-        <v>26.77003761139228</v>
+        <v>384.2711108624999</v>
       </c>
       <c r="S4">
-        <v>0.0450871458121246</v>
+        <v>0.05496590536553161</v>
       </c>
       <c r="T4">
-        <v>0.0450871458121246</v>
+        <v>0.05496590536553162</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.9698064957253</v>
+        <v>32.27937499999999</v>
       </c>
       <c r="H5">
-        <v>20.9698064957253</v>
+        <v>96.83812499999999</v>
       </c>
       <c r="I5">
-        <v>0.3383777977849396</v>
+        <v>0.4310459465194891</v>
       </c>
       <c r="J5">
-        <v>0.3383777977849396</v>
+        <v>0.4310459465194891</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.19150863941735</v>
+        <v>1.215240666666667</v>
       </c>
       <c r="N5">
-        <v>1.19150863941735</v>
+        <v>3.645722</v>
       </c>
       <c r="O5">
-        <v>0.1243636675942534</v>
+        <v>0.1171553175393823</v>
       </c>
       <c r="P5">
-        <v>0.1243636675942534</v>
+        <v>0.1171553175393823</v>
       </c>
       <c r="Q5">
-        <v>24.98570560656676</v>
+        <v>39.22720919458332</v>
       </c>
       <c r="R5">
-        <v>24.98570560656676</v>
+        <v>353.04488275125</v>
       </c>
       <c r="S5">
-        <v>0.04208190396500174</v>
+        <v>0.05049932473855436</v>
       </c>
       <c r="T5">
-        <v>0.04208190396500174</v>
+        <v>0.05049932473855437</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.9698064957253</v>
+        <v>32.27937499999999</v>
       </c>
       <c r="H6">
-        <v>20.9698064957253</v>
+        <v>96.83812499999999</v>
       </c>
       <c r="I6">
-        <v>0.3383777977849396</v>
+        <v>0.4310459465194891</v>
       </c>
       <c r="J6">
-        <v>0.3383777977849396</v>
+        <v>0.4310459465194891</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.72356114434032</v>
+        <v>2.741087</v>
       </c>
       <c r="N6">
-        <v>2.72356114434032</v>
+        <v>8.223261000000001</v>
       </c>
       <c r="O6">
-        <v>0.2842715878191155</v>
+        <v>0.264254584870766</v>
       </c>
       <c r="P6">
-        <v>0.2842715878191155</v>
+        <v>0.264254584870766</v>
       </c>
       <c r="Q6">
-        <v>57.11255017609268</v>
+        <v>88.480575180625</v>
       </c>
       <c r="R6">
-        <v>57.11255017609268</v>
+        <v>796.325176625625</v>
       </c>
       <c r="S6">
-        <v>0.09619119385906037</v>
+        <v>0.113905867657734</v>
       </c>
       <c r="T6">
-        <v>0.09619119385906037</v>
+        <v>0.113905867657734</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.9698064957253</v>
+        <v>32.27937499999999</v>
       </c>
       <c r="H7">
-        <v>20.9698064957253</v>
+        <v>96.83812499999999</v>
       </c>
       <c r="I7">
-        <v>0.3383777977849396</v>
+        <v>0.4310459465194891</v>
       </c>
       <c r="J7">
-        <v>0.3383777977849396</v>
+        <v>0.4310459465194891</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.02297466175175</v>
+        <v>2.319272333333334</v>
       </c>
       <c r="N7">
-        <v>2.02297466175175</v>
+        <v>6.957817</v>
       </c>
       <c r="O7">
-        <v>0.2111479011253475</v>
+        <v>0.2235895276754269</v>
       </c>
       <c r="P7">
-        <v>0.2111479011253475</v>
+        <v>0.2235895276754269</v>
       </c>
       <c r="Q7">
-        <v>42.42138720268954</v>
+        <v>74.86466137479167</v>
       </c>
       <c r="R7">
-        <v>42.42138720268954</v>
+        <v>673.781952373125</v>
       </c>
       <c r="S7">
-        <v>0.07144776178970724</v>
+        <v>0.09637735958869989</v>
       </c>
       <c r="T7">
-        <v>0.07144776178970724</v>
+        <v>0.09637735958869989</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>1.19786746831179</v>
+        <v>0.04778033333333333</v>
       </c>
       <c r="H8">
-        <v>1.19786746831179</v>
+        <v>0.143341</v>
       </c>
       <c r="I8">
-        <v>0.01932930358933886</v>
+        <v>0.0006380395843068018</v>
       </c>
       <c r="J8">
-        <v>0.01932930358933886</v>
+        <v>0.0006380395843068017</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.796262428731776</v>
+        <v>1.156565</v>
       </c>
       <c r="N8">
-        <v>0.796262428731776</v>
+        <v>3.469695</v>
       </c>
       <c r="O8">
-        <v>0.08310985982696313</v>
+        <v>0.1114986879114225</v>
       </c>
       <c r="P8">
-        <v>0.08310985982696313</v>
+        <v>0.1114986879114225</v>
       </c>
       <c r="Q8">
-        <v>0.9538168596167297</v>
+        <v>0.05526106122166667</v>
       </c>
       <c r="R8">
-        <v>0.9538168596167297</v>
+        <v>0.497349550995</v>
       </c>
       <c r="S8">
-        <v>0.001606455711862768</v>
+        <v>7.114057648575787E-05</v>
       </c>
       <c r="T8">
-        <v>0.001606455711862768</v>
+        <v>7.114057648575785E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>1.19786746831179</v>
+        <v>0.04778033333333333</v>
       </c>
       <c r="H9">
-        <v>1.19786746831179</v>
+        <v>0.143341</v>
       </c>
       <c r="I9">
-        <v>0.01932930358933886</v>
+        <v>0.0006380395843068018</v>
       </c>
       <c r="J9">
-        <v>0.01932930358933886</v>
+        <v>0.0006380395843068017</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.56993587049275</v>
+        <v>1.618010666666667</v>
       </c>
       <c r="N9">
-        <v>1.56993587049275</v>
+        <v>4.854032</v>
       </c>
       <c r="O9">
-        <v>0.1638619950231578</v>
+        <v>0.1559843730011019</v>
       </c>
       <c r="P9">
-        <v>0.1638619950231578</v>
+        <v>0.1559843730011019</v>
       </c>
       <c r="Q9">
-        <v>1.880575106599017</v>
+        <v>0.07730908899022222</v>
       </c>
       <c r="R9">
-        <v>1.880575106599017</v>
+        <v>0.695781800912</v>
       </c>
       <c r="S9">
-        <v>0.00316733824855735</v>
+        <v>9.952420450798016E-05</v>
       </c>
       <c r="T9">
-        <v>0.00316733824855735</v>
+        <v>9.952420450798015E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.19786746831179</v>
+        <v>0.04778033333333333</v>
       </c>
       <c r="H10">
-        <v>1.19786746831179</v>
+        <v>0.143341</v>
       </c>
       <c r="I10">
-        <v>0.01932930358933886</v>
+        <v>0.0006380395843068018</v>
       </c>
       <c r="J10">
-        <v>0.01932930358933886</v>
+        <v>0.0006380395843068017</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.27659917209295</v>
+        <v>1.322726666666667</v>
       </c>
       <c r="N10">
-        <v>1.27659917209295</v>
+        <v>3.96818</v>
       </c>
       <c r="O10">
-        <v>0.1332449886111627</v>
+        <v>0.1275175090019003</v>
       </c>
       <c r="P10">
-        <v>0.1332449886111627</v>
+        <v>0.1275175090019004</v>
       </c>
       <c r="Q10">
-        <v>1.529196618323909</v>
+        <v>0.06320032104222222</v>
       </c>
       <c r="R10">
-        <v>1.529196618323909</v>
+        <v>0.56880288938</v>
       </c>
       <c r="S10">
-        <v>0.002575532836623163</v>
+        <v>8.136121843541136E-05</v>
       </c>
       <c r="T10">
-        <v>0.002575532836623163</v>
+        <v>8.136121843541136E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1.19786746831179</v>
+        <v>0.04778033333333333</v>
       </c>
       <c r="H11">
-        <v>1.19786746831179</v>
+        <v>0.143341</v>
       </c>
       <c r="I11">
-        <v>0.01932930358933886</v>
+        <v>0.0006380395843068018</v>
       </c>
       <c r="J11">
-        <v>0.01932930358933886</v>
+        <v>0.0006380395843068017</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.19150863941735</v>
+        <v>1.215240666666667</v>
       </c>
       <c r="N11">
-        <v>1.19150863941735</v>
+        <v>3.645722</v>
       </c>
       <c r="O11">
-        <v>0.1243636675942534</v>
+        <v>0.1171553175393823</v>
       </c>
       <c r="P11">
-        <v>0.1243636675942534</v>
+        <v>0.1171553175393823</v>
       </c>
       <c r="Q11">
-        <v>1.427269437370487</v>
+        <v>0.05806460413355555</v>
       </c>
       <c r="R11">
-        <v>1.427269437370487</v>
+        <v>0.522581437202</v>
       </c>
       <c r="S11">
-        <v>0.002403863086412948</v>
+        <v>7.474973010215886E-05</v>
       </c>
       <c r="T11">
-        <v>0.002403863086412948</v>
+        <v>7.474973010215886E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.19786746831179</v>
+        <v>0.04778033333333333</v>
       </c>
       <c r="H12">
-        <v>1.19786746831179</v>
+        <v>0.143341</v>
       </c>
       <c r="I12">
-        <v>0.01932930358933886</v>
+        <v>0.0006380395843068018</v>
       </c>
       <c r="J12">
-        <v>0.01932930358933886</v>
+        <v>0.0006380395843068017</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.72356114434032</v>
+        <v>2.741087</v>
       </c>
       <c r="N12">
-        <v>2.72356114434032</v>
+        <v>8.223261000000001</v>
       </c>
       <c r="O12">
-        <v>0.2842715878191155</v>
+        <v>0.264254584870766</v>
       </c>
       <c r="P12">
-        <v>0.2842715878191155</v>
+        <v>0.264254584870766</v>
       </c>
       <c r="Q12">
-        <v>3.2624652927633</v>
+        <v>0.1309700505556667</v>
       </c>
       <c r="R12">
-        <v>3.2624652927633</v>
+        <v>1.178730455001</v>
       </c>
       <c r="S12">
-        <v>0.005494771822779088</v>
+        <v>0.00016860488548211</v>
       </c>
       <c r="T12">
-        <v>0.005494771822779088</v>
+        <v>0.00016860488548211</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>1.19786746831179</v>
+        <v>0.04778033333333333</v>
       </c>
       <c r="H13">
-        <v>1.19786746831179</v>
+        <v>0.143341</v>
       </c>
       <c r="I13">
-        <v>0.01932930358933886</v>
+        <v>0.0006380395843068018</v>
       </c>
       <c r="J13">
-        <v>0.01932930358933886</v>
+        <v>0.0006380395843068017</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.02297466175175</v>
+        <v>2.319272333333334</v>
       </c>
       <c r="N13">
-        <v>2.02297466175175</v>
+        <v>6.957817</v>
       </c>
       <c r="O13">
-        <v>0.2111479011253475</v>
+        <v>0.2235895276754269</v>
       </c>
       <c r="P13">
-        <v>0.2111479011253475</v>
+        <v>0.2235895276754269</v>
       </c>
       <c r="Q13">
-        <v>2.423255536531468</v>
+        <v>0.1108156051774445</v>
       </c>
       <c r="R13">
-        <v>2.423255536531468</v>
+        <v>0.9973404465970001</v>
       </c>
       <c r="S13">
-        <v>0.004081341883103547</v>
+        <v>0.0001426589692933835</v>
       </c>
       <c r="T13">
-        <v>0.004081341883103547</v>
+        <v>0.0001426589692933835</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.83019972475398</v>
+        <v>1.456971666666667</v>
       </c>
       <c r="H14">
-        <v>1.83019972475398</v>
+        <v>4.370915</v>
       </c>
       <c r="I14">
-        <v>0.02953288827415258</v>
+        <v>0.01945582066289732</v>
       </c>
       <c r="J14">
-        <v>0.02953288827415258</v>
+        <v>0.01945582066289732</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.796262428731776</v>
+        <v>1.156565</v>
       </c>
       <c r="N14">
-        <v>0.796262428731776</v>
+        <v>3.469695</v>
       </c>
       <c r="O14">
-        <v>0.08310985982696313</v>
+        <v>0.1114986879114225</v>
       </c>
       <c r="P14">
-        <v>0.08310985982696313</v>
+        <v>0.1114986879114225</v>
       </c>
       <c r="Q14">
-        <v>1.457319277896832</v>
+        <v>1.685082435658334</v>
       </c>
       <c r="R14">
-        <v>1.457319277896832</v>
+        <v>15.165741920925</v>
       </c>
       <c r="S14">
-        <v>0.002454474204750184</v>
+        <v>0.002169298476152994</v>
       </c>
       <c r="T14">
-        <v>0.002454474204750184</v>
+        <v>0.002169298476152994</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.83019972475398</v>
+        <v>1.456971666666667</v>
       </c>
       <c r="H15">
-        <v>1.83019972475398</v>
+        <v>4.370915</v>
       </c>
       <c r="I15">
-        <v>0.02953288827415258</v>
+        <v>0.01945582066289732</v>
       </c>
       <c r="J15">
-        <v>0.02953288827415258</v>
+        <v>0.01945582066289732</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.56993587049275</v>
+        <v>1.618010666666667</v>
       </c>
       <c r="N15">
-        <v>1.56993587049275</v>
+        <v>4.854032</v>
       </c>
       <c r="O15">
-        <v>0.1638619950231578</v>
+        <v>0.1559843730011019</v>
       </c>
       <c r="P15">
-        <v>0.1638619950231578</v>
+        <v>0.1559843730011019</v>
       </c>
       <c r="Q15">
-        <v>2.873296198057231</v>
+        <v>2.357395697697778</v>
       </c>
       <c r="R15">
-        <v>2.873296198057231</v>
+        <v>21.21656127928</v>
       </c>
       <c r="S15">
-        <v>0.004839317991398665</v>
+        <v>0.003034803987323921</v>
       </c>
       <c r="T15">
-        <v>0.004839317991398665</v>
+        <v>0.00303480398732392</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.83019972475398</v>
+        <v>1.456971666666667</v>
       </c>
       <c r="H16">
-        <v>1.83019972475398</v>
+        <v>4.370915</v>
       </c>
       <c r="I16">
-        <v>0.02953288827415258</v>
+        <v>0.01945582066289732</v>
       </c>
       <c r="J16">
-        <v>0.02953288827415258</v>
+        <v>0.01945582066289732</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.27659917209295</v>
+        <v>1.322726666666667</v>
       </c>
       <c r="N16">
-        <v>1.27659917209295</v>
+        <v>3.96818</v>
       </c>
       <c r="O16">
-        <v>0.1332449886111627</v>
+        <v>0.1275175090019003</v>
       </c>
       <c r="P16">
-        <v>0.1332449886111627</v>
+        <v>0.1275175090019004</v>
       </c>
       <c r="Q16">
-        <v>2.336431453385676</v>
+        <v>1.927175276077778</v>
       </c>
       <c r="R16">
-        <v>2.336431453385676</v>
+        <v>17.3445774847</v>
       </c>
       <c r="S16">
-        <v>0.003935109361744201</v>
+        <v>0.002480957786520368</v>
       </c>
       <c r="T16">
-        <v>0.003935109361744201</v>
+        <v>0.002480957786520368</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.83019972475398</v>
+        <v>1.456971666666667</v>
       </c>
       <c r="H17">
-        <v>1.83019972475398</v>
+        <v>4.370915</v>
       </c>
       <c r="I17">
-        <v>0.02953288827415258</v>
+        <v>0.01945582066289732</v>
       </c>
       <c r="J17">
-        <v>0.02953288827415258</v>
+        <v>0.01945582066289732</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.19150863941735</v>
+        <v>1.215240666666667</v>
       </c>
       <c r="N17">
-        <v>1.19150863941735</v>
+        <v>3.645722</v>
       </c>
       <c r="O17">
-        <v>0.1243636675942534</v>
+        <v>0.1171553175393823</v>
       </c>
       <c r="P17">
-        <v>0.1243636675942534</v>
+        <v>0.1171553175393823</v>
       </c>
       <c r="Q17">
-        <v>2.180698783903623</v>
+        <v>1.770571219514445</v>
       </c>
       <c r="R17">
-        <v>2.180698783903623</v>
+        <v>15.93514097563</v>
       </c>
       <c r="S17">
-        <v>0.003672818300424937</v>
+        <v>0.002279352847751011</v>
       </c>
       <c r="T17">
-        <v>0.003672818300424937</v>
+        <v>0.002279352847751011</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.83019972475398</v>
+        <v>1.456971666666667</v>
       </c>
       <c r="H18">
-        <v>1.83019972475398</v>
+        <v>4.370915</v>
       </c>
       <c r="I18">
-        <v>0.02953288827415258</v>
+        <v>0.01945582066289732</v>
       </c>
       <c r="J18">
-        <v>0.02953288827415258</v>
+        <v>0.01945582066289732</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.72356114434032</v>
+        <v>2.741087</v>
       </c>
       <c r="N18">
-        <v>2.72356114434032</v>
+        <v>8.223261000000001</v>
       </c>
       <c r="O18">
-        <v>0.2842715878191155</v>
+        <v>0.264254584870766</v>
       </c>
       <c r="P18">
-        <v>0.2842715878191155</v>
+        <v>0.264254584870766</v>
       </c>
       <c r="Q18">
-        <v>4.984660856722289</v>
+        <v>3.993686094868334</v>
       </c>
       <c r="R18">
-        <v>4.984660856722289</v>
+        <v>35.943174853815</v>
       </c>
       <c r="S18">
-        <v>0.008395361042577893</v>
+        <v>0.005141289812594003</v>
       </c>
       <c r="T18">
-        <v>0.008395361042577893</v>
+        <v>0.005141289812594002</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.83019972475398</v>
+        <v>1.456971666666667</v>
       </c>
       <c r="H19">
-        <v>1.83019972475398</v>
+        <v>4.370915</v>
       </c>
       <c r="I19">
-        <v>0.02953288827415258</v>
+        <v>0.01945582066289732</v>
       </c>
       <c r="J19">
-        <v>0.02953288827415258</v>
+        <v>0.01945582066289732</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.02297466175175</v>
+        <v>2.319272333333334</v>
       </c>
       <c r="N19">
-        <v>2.02297466175175</v>
+        <v>6.957817</v>
       </c>
       <c r="O19">
-        <v>0.2111479011253475</v>
+        <v>0.2235895276754269</v>
       </c>
       <c r="P19">
-        <v>0.2111479011253475</v>
+        <v>0.2235895276754269</v>
       </c>
       <c r="Q19">
-        <v>3.702447669122328</v>
+        <v>3.379114076950556</v>
       </c>
       <c r="R19">
-        <v>3.702447669122328</v>
+        <v>30.412026692555</v>
       </c>
       <c r="S19">
-        <v>0.006235807373256703</v>
+        <v>0.004350117752555022</v>
       </c>
       <c r="T19">
-        <v>0.006235807373256703</v>
+        <v>0.004350117752555021</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>37.6470660821969</v>
+        <v>1.932656333333333</v>
       </c>
       <c r="H20">
-        <v>37.6470660821969</v>
+        <v>5.797969</v>
       </c>
       <c r="I20">
-        <v>0.6074892162955683</v>
+        <v>0.02580792467321787</v>
       </c>
       <c r="J20">
-        <v>0.6074892162955683</v>
+        <v>0.02580792467321787</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.796262428731776</v>
+        <v>1.156565</v>
       </c>
       <c r="N20">
-        <v>0.796262428731776</v>
+        <v>3.469695</v>
       </c>
       <c r="O20">
-        <v>0.08310985982696313</v>
+        <v>0.1114986879114225</v>
       </c>
       <c r="P20">
-        <v>0.08310985982696313</v>
+        <v>0.1114986879114225</v>
       </c>
       <c r="Q20">
-        <v>29.97694427323577</v>
+        <v>2.235242672161667</v>
       </c>
       <c r="R20">
-        <v>29.97694427323577</v>
+        <v>20.117184049455</v>
       </c>
       <c r="S20">
-        <v>0.05048834361271637</v>
+        <v>0.002877549738780621</v>
       </c>
       <c r="T20">
-        <v>0.05048834361271637</v>
+        <v>0.002877549738780621</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>37.6470660821969</v>
+        <v>1.932656333333333</v>
       </c>
       <c r="H21">
-        <v>37.6470660821969</v>
+        <v>5.797969</v>
       </c>
       <c r="I21">
-        <v>0.6074892162955683</v>
+        <v>0.02580792467321787</v>
       </c>
       <c r="J21">
-        <v>0.6074892162955683</v>
+        <v>0.02580792467321787</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.56993587049275</v>
+        <v>1.618010666666667</v>
       </c>
       <c r="N21">
-        <v>1.56993587049275</v>
+        <v>4.854032</v>
       </c>
       <c r="O21">
-        <v>0.1638619950231578</v>
+        <v>0.1559843730011019</v>
       </c>
       <c r="P21">
-        <v>0.1638619950231578</v>
+        <v>0.1559843730011019</v>
       </c>
       <c r="Q21">
-        <v>59.10347946125187</v>
+        <v>3.127058562334222</v>
       </c>
       <c r="R21">
-        <v>59.10347946125187</v>
+        <v>28.143527061008</v>
       </c>
       <c r="S21">
-        <v>0.09954439493724643</v>
+        <v>0.004025632948611557</v>
       </c>
       <c r="T21">
-        <v>0.09954439493724643</v>
+        <v>0.004025632948611557</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>37.6470660821969</v>
+        <v>1.932656333333333</v>
       </c>
       <c r="H22">
-        <v>37.6470660821969</v>
+        <v>5.797969</v>
       </c>
       <c r="I22">
-        <v>0.6074892162955683</v>
+        <v>0.02580792467321787</v>
       </c>
       <c r="J22">
-        <v>0.6074892162955683</v>
+        <v>0.02580792467321787</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.27659917209295</v>
+        <v>1.322726666666667</v>
       </c>
       <c r="N22">
-        <v>1.27659917209295</v>
+        <v>3.96818</v>
       </c>
       <c r="O22">
-        <v>0.1332449886111627</v>
+        <v>0.1275175090019003</v>
       </c>
       <c r="P22">
-        <v>0.1332449886111627</v>
+        <v>0.1275175090019004</v>
       </c>
       <c r="Q22">
-        <v>48.06021339226114</v>
+        <v>2.556376069602222</v>
       </c>
       <c r="R22">
-        <v>48.06021339226114</v>
+        <v>23.00738462642</v>
       </c>
       <c r="S22">
-        <v>0.08094489370670716</v>
+        <v>0.003290962266837426</v>
       </c>
       <c r="T22">
-        <v>0.08094489370670716</v>
+        <v>0.003290962266837426</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>37.6470660821969</v>
+        <v>1.932656333333333</v>
       </c>
       <c r="H23">
-        <v>37.6470660821969</v>
+        <v>5.797969</v>
       </c>
       <c r="I23">
-        <v>0.6074892162955683</v>
+        <v>0.02580792467321787</v>
       </c>
       <c r="J23">
-        <v>0.6074892162955683</v>
+        <v>0.02580792467321787</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.19150863941735</v>
+        <v>1.215240666666667</v>
       </c>
       <c r="N23">
-        <v>1.19150863941735</v>
+        <v>3.645722</v>
       </c>
       <c r="O23">
-        <v>0.1243636675942534</v>
+        <v>0.1171553175393823</v>
       </c>
       <c r="P23">
-        <v>0.1243636675942534</v>
+        <v>0.1171553175393823</v>
       </c>
       <c r="Q23">
-        <v>44.85680448565349</v>
+        <v>2.348642570957555</v>
       </c>
       <c r="R23">
-        <v>44.85680448565349</v>
+        <v>21.137783138618</v>
       </c>
       <c r="S23">
-        <v>0.07554958696247559</v>
+        <v>0.0030235356101233</v>
       </c>
       <c r="T23">
-        <v>0.07554958696247559</v>
+        <v>0.0030235356101233</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>37.6470660821969</v>
+        <v>1.932656333333333</v>
       </c>
       <c r="H24">
-        <v>37.6470660821969</v>
+        <v>5.797969</v>
       </c>
       <c r="I24">
-        <v>0.6074892162955683</v>
+        <v>0.02580792467321787</v>
       </c>
       <c r="J24">
-        <v>0.6074892162955683</v>
+        <v>0.02580792467321787</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.72356114434032</v>
+        <v>2.741087</v>
       </c>
       <c r="N24">
-        <v>2.72356114434032</v>
+        <v>8.223261000000001</v>
       </c>
       <c r="O24">
-        <v>0.2842715878191155</v>
+        <v>0.264254584870766</v>
       </c>
       <c r="P24">
-        <v>0.2842715878191155</v>
+        <v>0.264254584870766</v>
       </c>
       <c r="Q24">
-        <v>102.5340863798838</v>
+        <v>5.297579150767667</v>
       </c>
       <c r="R24">
-        <v>102.5340863798838</v>
+        <v>47.67821235690901</v>
       </c>
       <c r="S24">
-        <v>0.1726919240993313</v>
+        <v>0.006819862420897189</v>
       </c>
       <c r="T24">
-        <v>0.1726919240993313</v>
+        <v>0.006819862420897188</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>37.6470660821969</v>
+        <v>1.932656333333333</v>
       </c>
       <c r="H25">
-        <v>37.6470660821969</v>
+        <v>5.797969</v>
       </c>
       <c r="I25">
-        <v>0.6074892162955683</v>
+        <v>0.02580792467321787</v>
       </c>
       <c r="J25">
-        <v>0.6074892162955683</v>
+        <v>0.02580792467321787</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.02297466175175</v>
+        <v>2.319272333333334</v>
       </c>
       <c r="N25">
-        <v>2.02297466175175</v>
+        <v>6.957817</v>
       </c>
       <c r="O25">
-        <v>0.2111479011253475</v>
+        <v>0.2235895276754269</v>
       </c>
       <c r="P25">
-        <v>0.2111479011253475</v>
+        <v>0.2235895276754269</v>
       </c>
       <c r="Q25">
-        <v>76.15906077357805</v>
+        <v>4.482356363741445</v>
       </c>
       <c r="R25">
-        <v>76.15906077357805</v>
+        <v>40.341207273673</v>
       </c>
       <c r="S25">
-        <v>0.1282700729770915</v>
+        <v>0.005770381687967781</v>
       </c>
       <c r="T25">
-        <v>0.1282700729770915</v>
+        <v>0.00577038168796778</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.326639431300393</v>
+        <v>38.75974866666667</v>
       </c>
       <c r="H26">
-        <v>0.326639431300393</v>
+        <v>116.279246</v>
       </c>
       <c r="I26">
-        <v>0.005270794056000618</v>
+        <v>0.5175822812827338</v>
       </c>
       <c r="J26">
-        <v>0.005270794056000618</v>
+        <v>0.5175822812827336</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.796262428731776</v>
+        <v>1.156565</v>
       </c>
       <c r="N26">
-        <v>0.796262428731776</v>
+        <v>3.469695</v>
       </c>
       <c r="O26">
-        <v>0.08310985982696313</v>
+        <v>0.1114986879114225</v>
       </c>
       <c r="P26">
-        <v>0.08310985982696313</v>
+        <v>0.1114986879114225</v>
       </c>
       <c r="Q26">
-        <v>0.2600907068868171</v>
+        <v>44.82816871666333</v>
       </c>
       <c r="R26">
-        <v>0.2600907068868171</v>
+        <v>403.45351844997</v>
       </c>
       <c r="S26">
-        <v>0.0004380549551710018</v>
+        <v>0.05770974524922565</v>
       </c>
       <c r="T26">
-        <v>0.0004380549551710018</v>
+        <v>0.05770974524922564</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.326639431300393</v>
+        <v>38.75974866666667</v>
       </c>
       <c r="H27">
-        <v>0.326639431300393</v>
+        <v>116.279246</v>
       </c>
       <c r="I27">
-        <v>0.005270794056000618</v>
+        <v>0.5175822812827338</v>
       </c>
       <c r="J27">
-        <v>0.005270794056000618</v>
+        <v>0.5175822812827336</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1.56993587049275</v>
+        <v>1.618010666666667</v>
       </c>
       <c r="N27">
-        <v>1.56993587049275</v>
+        <v>4.854032</v>
       </c>
       <c r="O27">
-        <v>0.1638619950231578</v>
+        <v>0.1559843730011019</v>
       </c>
       <c r="P27">
-        <v>0.1638619950231578</v>
+        <v>0.1559843730011019</v>
       </c>
       <c r="Q27">
-        <v>0.5128029599158394</v>
+        <v>62.71368677998578</v>
       </c>
       <c r="R27">
-        <v>0.5128029599158394</v>
+        <v>564.423181019872</v>
       </c>
       <c r="S27">
-        <v>0.0008636828293724628</v>
+        <v>0.08073474762236717</v>
       </c>
       <c r="T27">
-        <v>0.0008636828293724628</v>
+        <v>0.08073474762236715</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.326639431300393</v>
+        <v>38.75974866666667</v>
       </c>
       <c r="H28">
-        <v>0.326639431300393</v>
+        <v>116.279246</v>
       </c>
       <c r="I28">
-        <v>0.005270794056000618</v>
+        <v>0.5175822812827338</v>
       </c>
       <c r="J28">
-        <v>0.005270794056000618</v>
+        <v>0.5175822812827336</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.27659917209295</v>
+        <v>1.322726666666667</v>
       </c>
       <c r="N28">
-        <v>1.27659917209295</v>
+        <v>3.96818</v>
       </c>
       <c r="O28">
-        <v>0.1332449886111627</v>
+        <v>0.1275175090019003</v>
       </c>
       <c r="P28">
-        <v>0.1332449886111627</v>
+        <v>0.1275175090019004</v>
       </c>
       <c r="Q28">
-        <v>0.4169876275709937</v>
+        <v>51.26855315469778</v>
       </c>
       <c r="R28">
-        <v>0.4169876275709937</v>
+        <v>461.41697839228</v>
       </c>
       <c r="S28">
-        <v>0.0007023068939635864</v>
+        <v>0.06600080321269512</v>
       </c>
       <c r="T28">
-        <v>0.0007023068939635864</v>
+        <v>0.06600080321269512</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.326639431300393</v>
+        <v>38.75974866666667</v>
       </c>
       <c r="H29">
-        <v>0.326639431300393</v>
+        <v>116.279246</v>
       </c>
       <c r="I29">
-        <v>0.005270794056000618</v>
+        <v>0.5175822812827338</v>
       </c>
       <c r="J29">
-        <v>0.005270794056000618</v>
+        <v>0.5175822812827336</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.19150863941735</v>
+        <v>1.215240666666667</v>
       </c>
       <c r="N29">
-        <v>1.19150863941735</v>
+        <v>3.645722</v>
       </c>
       <c r="O29">
-        <v>0.1243636675942534</v>
+        <v>0.1171553175393823</v>
       </c>
       <c r="P29">
-        <v>0.1243636675942534</v>
+        <v>0.1171553175393823</v>
       </c>
       <c r="Q29">
-        <v>0.3891937043687883</v>
+        <v>47.10242280951244</v>
       </c>
       <c r="R29">
-        <v>0.3891937043687883</v>
+        <v>423.921805285612</v>
       </c>
       <c r="S29">
-        <v>0.0006554952799382277</v>
+        <v>0.06063751651643658</v>
       </c>
       <c r="T29">
-        <v>0.0006554952799382277</v>
+        <v>0.06063751651643657</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.326639431300393</v>
+        <v>38.75974866666667</v>
       </c>
       <c r="H30">
-        <v>0.326639431300393</v>
+        <v>116.279246</v>
       </c>
       <c r="I30">
-        <v>0.005270794056000618</v>
+        <v>0.5175822812827338</v>
       </c>
       <c r="J30">
-        <v>0.005270794056000618</v>
+        <v>0.5175822812827336</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.72356114434032</v>
+        <v>2.741087</v>
       </c>
       <c r="N30">
-        <v>2.72356114434032</v>
+        <v>8.223261000000001</v>
       </c>
       <c r="O30">
-        <v>0.2842715878191155</v>
+        <v>0.264254584870766</v>
       </c>
       <c r="P30">
-        <v>0.2842715878191155</v>
+        <v>0.264254584870766</v>
       </c>
       <c r="Q30">
-        <v>0.8896224632991697</v>
+        <v>106.2438431934673</v>
       </c>
       <c r="R30">
-        <v>0.8896224632991697</v>
+        <v>956.1945887412061</v>
       </c>
       <c r="S30">
-        <v>0.001498336995366852</v>
+        <v>0.1367734908768329</v>
       </c>
       <c r="T30">
-        <v>0.001498336995366852</v>
+        <v>0.1367734908768328</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>38.75974866666667</v>
+      </c>
+      <c r="H31">
+        <v>116.279246</v>
+      </c>
+      <c r="I31">
+        <v>0.5175822812827338</v>
+      </c>
+      <c r="J31">
+        <v>0.5175822812827336</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>2.319272333333334</v>
+      </c>
+      <c r="N31">
+        <v>6.957817</v>
+      </c>
+      <c r="O31">
+        <v>0.2235895276754269</v>
+      </c>
+      <c r="P31">
+        <v>0.2235895276754269</v>
+      </c>
+      <c r="Q31">
+        <v>89.89441272955357</v>
+      </c>
+      <c r="R31">
+        <v>809.0497145659821</v>
+      </c>
+      <c r="S31">
+        <v>0.1157259778051764</v>
+      </c>
+      <c r="T31">
+        <v>0.1157259778051764</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.4096263333333334</v>
+      </c>
+      <c r="H32">
+        <v>1.228879</v>
+      </c>
+      <c r="I32">
+        <v>0.005469987277355107</v>
+      </c>
+      <c r="J32">
+        <v>0.005469987277355105</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.156565</v>
+      </c>
+      <c r="N32">
+        <v>3.469695</v>
+      </c>
+      <c r="O32">
+        <v>0.1114986879114225</v>
+      </c>
+      <c r="P32">
+        <v>0.1114986879114225</v>
+      </c>
+      <c r="Q32">
+        <v>0.4737594802116668</v>
+      </c>
+      <c r="R32">
+        <v>4.263835321905001</v>
+      </c>
+      <c r="S32">
+        <v>0.0006098964043172689</v>
+      </c>
+      <c r="T32">
+        <v>0.0006098964043172688</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.4096263333333334</v>
+      </c>
+      <c r="H33">
+        <v>1.228879</v>
+      </c>
+      <c r="I33">
+        <v>0.005469987277355107</v>
+      </c>
+      <c r="J33">
+        <v>0.005469987277355105</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1.618010666666667</v>
+      </c>
+      <c r="N33">
+        <v>4.854032</v>
+      </c>
+      <c r="O33">
+        <v>0.1559843730011019</v>
+      </c>
+      <c r="P33">
+        <v>0.1559843730011019</v>
+      </c>
+      <c r="Q33">
+        <v>0.6627797766808889</v>
+      </c>
+      <c r="R33">
+        <v>5.965017990128</v>
+      </c>
+      <c r="S33">
+        <v>0.0008532325357822407</v>
+      </c>
+      <c r="T33">
+        <v>0.0008532325357822404</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.4096263333333334</v>
+      </c>
+      <c r="H34">
+        <v>1.228879</v>
+      </c>
+      <c r="I34">
+        <v>0.005469987277355107</v>
+      </c>
+      <c r="J34">
+        <v>0.005469987277355105</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1.322726666666667</v>
+      </c>
+      <c r="N34">
+        <v>3.96818</v>
+      </c>
+      <c r="O34">
+        <v>0.1275175090019003</v>
+      </c>
+      <c r="P34">
+        <v>0.1275175090019004</v>
+      </c>
+      <c r="Q34">
+        <v>0.5418236744688889</v>
+      </c>
+      <c r="R34">
+        <v>4.87641307022</v>
+      </c>
+      <c r="S34">
+        <v>0.0006975191518804101</v>
+      </c>
+      <c r="T34">
+        <v>0.0006975191518804101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.4096263333333334</v>
+      </c>
+      <c r="H35">
+        <v>1.228879</v>
+      </c>
+      <c r="I35">
+        <v>0.005469987277355107</v>
+      </c>
+      <c r="J35">
+        <v>0.005469987277355105</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1.215240666666667</v>
+      </c>
+      <c r="N35">
+        <v>3.645722</v>
+      </c>
+      <c r="O35">
+        <v>0.1171553175393823</v>
+      </c>
+      <c r="P35">
+        <v>0.1171553175393823</v>
+      </c>
+      <c r="Q35">
+        <v>0.4977945784042223</v>
+      </c>
+      <c r="R35">
+        <v>4.480151205638</v>
+      </c>
+      <c r="S35">
+        <v>0.0006408380964149189</v>
+      </c>
+      <c r="T35">
+        <v>0.0006408380964149188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.326639431300393</v>
-      </c>
-      <c r="H31">
-        <v>0.326639431300393</v>
-      </c>
-      <c r="I31">
-        <v>0.005270794056000618</v>
-      </c>
-      <c r="J31">
-        <v>0.005270794056000618</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>2.02297466175175</v>
-      </c>
-      <c r="N31">
-        <v>2.02297466175175</v>
-      </c>
-      <c r="O31">
-        <v>0.2111479011253475</v>
-      </c>
-      <c r="P31">
-        <v>0.2111479011253475</v>
-      </c>
-      <c r="Q31">
-        <v>0.6607832930496965</v>
-      </c>
-      <c r="R31">
-        <v>0.6607832930496965</v>
-      </c>
-      <c r="S31">
-        <v>0.001112917102188488</v>
-      </c>
-      <c r="T31">
-        <v>0.001112917102188488</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.4096263333333334</v>
+      </c>
+      <c r="H36">
+        <v>1.228879</v>
+      </c>
+      <c r="I36">
+        <v>0.005469987277355107</v>
+      </c>
+      <c r="J36">
+        <v>0.005469987277355105</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.741087</v>
+      </c>
+      <c r="N36">
+        <v>8.223261000000001</v>
+      </c>
+      <c r="O36">
+        <v>0.264254584870766</v>
+      </c>
+      <c r="P36">
+        <v>0.264254584870766</v>
+      </c>
+      <c r="Q36">
+        <v>1.122821417157667</v>
+      </c>
+      <c r="R36">
+        <v>10.105392754419</v>
+      </c>
+      <c r="S36">
+        <v>0.001445469217225845</v>
+      </c>
+      <c r="T36">
+        <v>0.001445469217225845</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.4096263333333334</v>
+      </c>
+      <c r="H37">
+        <v>1.228879</v>
+      </c>
+      <c r="I37">
+        <v>0.005469987277355107</v>
+      </c>
+      <c r="J37">
+        <v>0.005469987277355105</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>2.319272333333334</v>
+      </c>
+      <c r="N37">
+        <v>6.957817</v>
+      </c>
+      <c r="O37">
+        <v>0.2235895276754269</v>
+      </c>
+      <c r="P37">
+        <v>0.2235895276754269</v>
+      </c>
+      <c r="Q37">
+        <v>0.950035021904778</v>
+      </c>
+      <c r="R37">
+        <v>8.550315197143</v>
+      </c>
+      <c r="S37">
+        <v>0.001223031871734423</v>
+      </c>
+      <c r="T37">
+        <v>0.001223031871734422</v>
       </c>
     </row>
   </sheetData>
